--- a/uploads/FLAT_2016-03_Content_Order_Adult_Gay_11_11_15.xlsx
+++ b/uploads/FLAT_2016-03_Content_Order_Adult_Gay_11_11_15.xlsx
@@ -3597,7 +3597,7 @@
     <t>BLOCK</t>
   </si>
   <si>
-    <t>Rebecca Moore, Emma Leigh, Mea Melone</t>
+    <t>Emma Leigh, Rebecca Moore, Mea Melone</t>
   </si>
   <si>
     <t>evil_teen_sex_games</t>
@@ -3618,7 +3618,7 @@
     <t>0628743|0628743</t>
   </si>
   <si>
-    <t>Indigo Augustine, Jenna Sativa, Ashley Adams, Aubrey Gold, Jenna Sativa, Nina North</t>
+    <t>Aubrey Gold, Jenna Sativa, Nina North, Indigo Augustine, Jenna Sativa, Ashley Adams</t>
   </si>
   <si>
     <t>xxxr18</t>
@@ -3639,7 +3639,7 @@
     <t>0628744|0628744</t>
   </si>
   <si>
-    <t>Marsha May, Diamond Foxx, Jade Jantzen</t>
+    <t>Diamond Foxx, Jade Jantzen, Marsha May</t>
   </si>
   <si>
     <t>parents_bang_teens</t>
@@ -3657,7 +3657,7 @@
     <t>0628745|0628745</t>
   </si>
   <si>
-    <t>Leigh Darby, Ella Hughes, Kenna James, Eva Karera</t>
+    <t>Kenna James, Eva Karera, Ella Hughes, Leigh Darby</t>
   </si>
   <si>
     <t>stepmom_milks_me</t>
@@ -3678,7 +3678,7 @@
     <t>0628746|0628746</t>
   </si>
   <si>
-    <t>Sarah Jessie, Isis Love, Veronica Rayne, Julia Ann</t>
+    <t>Sarah Jessie, Veronica Rayne, Julia Ann, Isis Love</t>
   </si>
   <si>
     <t>mom_ruins_boys</t>
@@ -3699,7 +3699,7 @@
     <t>0628747|0628747</t>
   </si>
   <si>
-    <t>Brandy Aniston, Shay Sights, Eva Karera, Ariella Ferrera</t>
+    <t>Shay Sights, Ariella Ferrera, Brandy Aniston, Eva Karera</t>
   </si>
   <si>
     <t>wife_me_and_teen</t>
@@ -3717,7 +3717,7 @@
     <t>0628748|0628748</t>
   </si>
   <si>
-    <t>August Ames, Ava Addams, Iggy Amore, Silvia Saige, Nikki Benz, Britney Amber</t>
+    <t>Nikki Benz, Britney Amber, August Ames, Ava Addams, Iggy Amore, Silvia Saige</t>
   </si>
   <si>
     <t>holestuffing_3ways</t>
@@ -3735,7 +3735,7 @@
     <t>0628749|0628749</t>
   </si>
   <si>
-    <t>Kissa Sins, Peta Jensen, Alexa Grace, Mia Malkova, Kissa Sins, Romi Rain</t>
+    <t>Alexa Grace, Mia Malkova, Kissa Sins, Romi Rain, Kissa Sins, Peta Jensen</t>
   </si>
   <si>
     <t>gagging_office_girls</t>
@@ -3756,7 +3756,7 @@
     <t>0628750|0628750</t>
   </si>
   <si>
-    <t>Noelle Easton, London Keyes, Cassidy Banks, Dillion Harper</t>
+    <t>Noelle Easton, Cassidy Banks, Dillion Harper, London Keyes</t>
   </si>
   <si>
     <t>anal_massage</t>
@@ -3774,7 +3774,7 @@
     <t>0628751|0628751</t>
   </si>
   <si>
-    <t>Diamond Kitty, Riley Evans, Erica Fontes</t>
+    <t>Riley Evans, Erica Fontes, Diamond Kitty</t>
   </si>
   <si>
     <t>amateurs_in_panties</t>
@@ -3795,7 +3795,7 @@
     <t>0628752|0628752</t>
   </si>
   <si>
-    <t>Anya Olsen, Kylie Nicole, Joseline Kelly, Janice Griffith</t>
+    <t>Kylie Nicole, Janice Griffith, Anya Olsen, Joseline Kelly</t>
   </si>
   <si>
     <t>young_stranded_teens</t>
@@ -3816,7 +3816,7 @@
     <t>0628753|0628753</t>
   </si>
   <si>
-    <t>Lucy Doll, Mallory Madison, Kimmy Granger, Kelly Greene</t>
+    <t>Kimmy Granger, Kelly Greene, Lucy Doll, Mallory Madison</t>
   </si>
   <si>
     <t>4_embarrassed_teens</t>
@@ -3837,7 +3837,7 @@
     <t>0628754|0628754</t>
   </si>
   <si>
-    <t>Melissa Moore, Lucy Doll, Kimmy Granger, Janice Griffith</t>
+    <t>Janice Griffith, Kimmy Granger, Melissa Moore, Lucy Doll</t>
   </si>
   <si>
     <t>lesbo_tongue_sex</t>
@@ -3858,7 +3858,7 @@
     <t>0628755|0628755</t>
   </si>
   <si>
-    <t>Karlie Montana, Lena Nicole, Kenna James, Samantha Rone, Lola MyLuv, Frida Stark, August Ames, Kendra James</t>
+    <t>Lola MyLuv, Frida Stark, August Ames, Kendra James, Kenna James, Samantha Rone, Karlie Montana, Lena Nicole</t>
   </si>
   <si>
     <t>anal_seductions</t>
@@ -3876,7 +3876,7 @@
     <t>0628756|0628756</t>
   </si>
   <si>
-    <t>Victoria Daniels, Leyla Peachbloom, Paula Shy</t>
+    <t>Paula Shy, Leyla Peachbloom, Victoria Daniels</t>
   </si>
   <si>
     <t>erotic_office_girls</t>
@@ -3897,7 +3897,7 @@
     <t>0628757|0628757</t>
   </si>
   <si>
-    <t>Christen Courtney, Lola Taylor, Antonia Sainz, Staci Carr</t>
+    <t>Lola Taylor, Antonia Sainz, Christen Courtney, Staci Carr</t>
   </si>
   <si>
     <t>blondes_lick_slits</t>
@@ -3918,7 +3918,7 @@
     <t>0628758|0628758</t>
   </si>
   <si>
-    <t>Allie Eve Knox, Samantha Rone, Natalia Starr, Samantha Rone, Georgia Jones, Mia Malkova, Alyssa Reece, Maya Rae</t>
+    <t>Natalia Starr, Samantha Rone, Georgia Jones, Mia Malkova, Allie Eve Knox, Samantha Rone, Alyssa Reece, Maya Rae</t>
   </si>
   <si>
     <t>deep_in_juicy_pink</t>
@@ -3939,7 +3939,7 @@
     <t>0628759|0628759</t>
   </si>
   <si>
-    <t>Alice March, Kendall Kayden, Staci Carr, Ariana Marie</t>
+    <t>Kendall Kayden, Ariana Marie, Alice March, Staci Carr</t>
   </si>
   <si>
     <t>dd_babes_pounded</t>
@@ -3960,7 +3960,7 @@
     <t>0628760|0628760</t>
   </si>
   <si>
-    <t>Peta Jensen, Sofia Cucci, Kendra Lust, Amia Miley</t>
+    <t>Peta Jensen, Sofia Cucci, Amia Miley, Kendra Lust</t>
   </si>
   <si>
     <t>all_rough_sex</t>
@@ -3978,7 +3978,7 @@
     <t>0628761|0628761</t>
   </si>
   <si>
-    <t>Rilynn Rae, Brooklyn Lee, Roxy Raye</t>
+    <t>Roxy Raye, Rilynn Rae, Brooklyn Lee</t>
   </si>
   <si>
     <t>asians_boob_babes</t>
@@ -3999,7 +3999,7 @@
     <t>0628762|0628762</t>
   </si>
   <si>
-    <t>Jessica Bangkok, Taylor Kiss, Asa Akira, Mia Lelani</t>
+    <t>Asa Akira, Jessica Bangkok, Mia Lelani, Taylor Kiss</t>
   </si>
   <si>
     <t>anal_gangbangs</t>
@@ -4017,7 +4017,7 @@
     <t>0628763|0628763</t>
   </si>
   <si>
-    <t>Bonnie Rotten, Sophia Locke, Allison Moore</t>
+    <t>Allison Moore, Bonnie Rotten, Sophia Locke</t>
   </si>
   <si>
     <t>hey_thats_my_wife</t>
@@ -4038,7 +4038,7 @@
     <t>0628764|0628764</t>
   </si>
   <si>
-    <t>Kayla Kayden, Peta Jensen, Rachel Starr, Kelly Summer</t>
+    <t>Peta Jensen, Kayla Kayden, Kelly Summer, Rachel Starr</t>
   </si>
   <si>
     <t>we_can_gag_my_wife</t>
@@ -4074,7 +4074,7 @@
     <t>0628766|0628766</t>
   </si>
   <si>
-    <t>Alex Little, Diamond Jackson, Abella Danger, Phoenix Marie, Jenna Ashley, Jewels Jade</t>
+    <t>Jenna Ashley, Jewels Jade, Alex Little, Diamond Jackson, Abella Danger, Phoenix Marie</t>
   </si>
   <si>
     <t>drunk_coed_4way_sex</t>
@@ -4092,7 +4092,7 @@
     <t>0628767|0628767</t>
   </si>
   <si>
-    <t>Ada Sanchez, Carrie Brooks, Cleo Vixen, Ria Rox, Natalia Mendez, Valentina Vega</t>
+    <t>Natalia Mendez, Valentina Vega, Ada Sanchez, Carrie Brooks, Cleo Vixen, Ria Rox</t>
   </si>
   <si>
     <t>10_hottest_bosses</t>
@@ -4131,7 +4131,7 @@
     <t>0628768|0628768</t>
   </si>
   <si>
-    <t>Capri Cavanni, Aleksa Nicole, Madison Ivy, Kayla Kayden, Nina Elle, Monique Alexander, Romi Rain, Lela Star, Ashton Blake, Nikki Benz, Jayden Jaymes</t>
+    <t>Lela Star, Jayden Jaymes, Madison Ivy, Nina Elle, Romi Rain, Monique Alexander, Kayla Kayden, Nikki Benz, Ashton Blake, Capri Cavanni, Aleksa Nicole</t>
   </si>
   <si>
     <t>10_dirtiest_nurses</t>
@@ -4170,7 +4170,7 @@
     <t>0628769|0628769</t>
   </si>
   <si>
-    <t>Mia Malkova, Madison Ivy, Gracie Glam, Melanie Rios, Kennedy Leigh, Ann Marie Rios, Juelz Ventura, Connie Carter, Molly Bennett, Codi Bryant, Brianna Brooks</t>
+    <t>Juelz Ventura, Kennedy Leigh, Gracie Glam, Melanie Rios, Madison Ivy, Connie Carter, Brianna Brooks, Codi Bryant, Molly Bennett, Ann Marie Rios, Mia Malkova</t>
   </si>
   <si>
     <t>10_biggest_blacks</t>
@@ -4209,7 +4209,7 @@
     <t>0628770|0628770</t>
   </si>
   <si>
-    <t>Phoenix Marie, Madelyn Monroe, Lisa Ann, Nikki Sexx, Amy Anderssen, Riley Reid, Krissy Lynn, Georgie Lyall, Pressley Carter, Raylene</t>
+    <t>Madelyn Monroe, Amy Anderssen, Phoenix Marie, Riley Reid, Lisa Ann, Krissy Lynn, Georgie Lyall, Raylene, Pressley Carter, Nikki Sexx</t>
   </si>
   <si>
     <t>10_meanest_milfs</t>
@@ -4248,7 +4248,7 @@
     <t>0628771|0628771</t>
   </si>
   <si>
-    <t>Cherie Deville, Kendra James, Stevie Shae, Alena Croft, Lezley Zen, Isis Love, Joslyn James, Brandi Love, Alura Jenson, Ariella Ferrera, Shay Fox</t>
+    <t>Ariella Ferrera, Kendra James, Stevie Shae, Lezley Zen, Isis Love, Brandi Love, Alura Jenson, Alena Croft, Joslyn James, Shay Fox, Cherie Deville</t>
   </si>
   <si>
     <t>gay_hard_for_his_hole</t>
@@ -4269,7 +4269,7 @@
     <t>0628820|0628820</t>
   </si>
   <si>
-    <t>Aquiles Paris, Malek Tobias, Darius Ferdynand, Tony Milan, Theo Ford, Tony Milan, Robbie Rojo, Theo Ford</t>
+    <t>Aquiles Paris, Malek Tobias, Robbie Rojo, Theo Ford, Darius Ferdynand, Tony Milan, Theo Ford, Tony Milan</t>
   </si>
   <si>
     <t>gay_butthole_bandits</t>
@@ -4290,7 +4290,7 @@
     <t>0628821|0628821</t>
   </si>
   <si>
-    <t>Connor Maguire, Dennis West, Connor Maguire, Jack Radley, Johnny Hazzard, Will Braun, Jack Radley, Will Braun</t>
+    <t>Connor Maguire, Dennis West, Johnny Hazzard, Will Braun, Jack Radley, Will Braun, Connor Maguire, Jack Radley</t>
   </si>
   <si>
     <t>gay_office_boy_sex</t>
@@ -4311,7 +4311,7 @@
     <t>0628822|0628822</t>
   </si>
   <si>
-    <t>Mark Sanz, Paddy O'Brian, Diego Sans, Vadim Black, Mike De Marko, Vadim Black</t>
+    <t>Mike De Marko, Vadim Black, Diego Sans, Vadim Black, Mark Sanz, Paddy O'Brian</t>
   </si>
   <si>
     <t>gay_mmm_hes_hairy</t>
@@ -4332,7 +4332,7 @@
     <t>0628823|0628823</t>
   </si>
   <si>
-    <t>Brenner Bolton, Landon Mycles, Denis Vega, Letterio, Addison Graham, Alex Mecum, Johnny Hazzard, Mike De Marko</t>
+    <t>Brenner Bolton, Landon Mycles, Addison Graham, Alex Mecum, Johnny Hazzard, Mike De Marko, Denis Vega, Letterio</t>
   </si>
   <si>
     <t>gay_boss_banged_my_butt</t>
@@ -4353,7 +4353,7 @@
     <t>0628824|0628824</t>
   </si>
   <si>
-    <t>Dakota Vice, Denis Vega, Dakota Vice, Flex, Dani Robles, Flex, Dani Robles, Logan Moore</t>
+    <t>Dani Robles, Logan Moore, Dani Robles, Flex, Dakota Vice, Flex, Dakota Vice, Denis Vega</t>
   </si>
   <si>
     <t>gay_he_sucks_me_at_work</t>
@@ -4374,7 +4374,7 @@
     <t>0628825|0628825</t>
   </si>
   <si>
-    <t>Abraham Al Malek, Logan Moore, Connor Maguire, Paul Walker, Damien Crosse, Jessy Ares, Diego Sans, Seth Santoro</t>
+    <t>Diego Sans, Seth Santoro, Abraham Al Malek, Logan Moore, Connor Maguire, Paul Walker, Damien Crosse, Jessy Ares</t>
   </si>
   <si>
     <t>gay_drill_my_bottom</t>
@@ -4395,7 +4395,7 @@
     <t>0628826|0628826</t>
   </si>
   <si>
-    <t>Christian Wilde, Will Braun, Diego Sans, Will Braun, Jimmy Fanz, Landon Mycles, Adam Bryant, Alex Mecum</t>
+    <t>Christian Wilde, Will Braun, Adam Bryant, Alex Mecum, Diego Sans, Will Braun, Jimmy Fanz, Landon Mycles</t>
   </si>
   <si>
     <t>gay_secret_gay_sex</t>
@@ -4416,7 +4416,7 @@
     <t>0628827|0628827</t>
   </si>
   <si>
-    <t>Landon Mycles, Tommy Regan, Billy Santoro, Colby Jansen, Dennis West, Jack Radley, Jack Radley, Roman Todd</t>
+    <t>Jack Radley, Roman Todd, Billy Santoro, Colby Jansen, Dennis West, Jack Radley, Landon Mycles, Tommy Regan</t>
   </si>
   <si>
     <t>gay_down_low_man_sex</t>
@@ -4437,7 +4437,7 @@
     <t>0628828|0628828</t>
   </si>
   <si>
-    <t>Brenden Cage, Colby Keller, Hunter Ford, Jessie Colter, Caleb Colton, Johnny Rapid, Brandon Lewis, Hunter Ford</t>
+    <t>Caleb Colton, Johnny Rapid, Brenden Cage, Colby Keller, Hunter Ford, Jessie Colter, Brandon Lewis, Hunter Ford</t>
   </si>
   <si>
     <t>gay_all_hard_meat</t>
@@ -4458,7 +4458,7 @@
     <t>0628829|0628829</t>
   </si>
   <si>
-    <t>Dereck Fox, Kyle Thomas, Jake Steel, Preston Steel, Gavin Waters, Marc Dylan, Ari Sylvio, Lex Sabre</t>
+    <t>Gavin Waters, Marc Dylan, Dereck Fox, Kyle Thomas, Jake Steel, Preston Steel, Ari Sylvio, Lex Sabre</t>
   </si>
   <si>
     <t>gay_johnny_goes_bareback</t>
@@ -4479,7 +4479,7 @@
     <t>0626202|0626202</t>
   </si>
   <si>
-    <t>Dennis, Jake Wilder, Johnny Rapid, Vadim Black, Johnny Rapid, Dennis West, Johnny Rapid, Jake Wilder, Vadim Black, Dennis West</t>
+    <t>Johnny Rapid, Dennis West, Dennis, Jake Wilder, Johnny Rapid, Vadim Black, Johnny Rapid, Jake Wilder, Vadim Black, Dennis West</t>
   </si>
   <si>
     <t>gay_backwoods_bareback</t>
@@ -4497,7 +4497,7 @@
     <t>0626203|0626203</t>
   </si>
   <si>
-    <t xml:space="preserve">Tom Faulk, Bryce, Sebastian Young, Scott Harbor, Bryce, Tom Faulk, Sebastian Young, Scott Harbor, Tom Faulk </t>
+    <t xml:space="preserve">Bryce, Tom Faulk, Sebastian Young, Tom Faulk, Bryce, Sebastian Young, Scott Harbor, Scott Harbor, Tom Faulk </t>
   </si>
   <si>
     <t>gay_the_garage</t>
@@ -4518,7 +4518,7 @@
     <t>0627167|0627167</t>
   </si>
   <si>
-    <t>Marcus Ruhl, Roman Todd, Marcus Ruhl, Logan Cruise, Marcus Ruhl, Lucas Knight, Marcus Ruhl, Kaden Alexander</t>
+    <t>Marcus Ruhl, Logan Cruise, Marcus Ruhl, Lucas Knight, Marcus Ruhl, Roman Todd, Marcus Ruhl, Kaden Alexander</t>
   </si>
   <si>
     <t>gay_my_new_stepdad</t>
@@ -4575,7 +4575,7 @@
     <t>0628830|0628830</t>
   </si>
   <si>
-    <t>Braden Charron, Logan Vaughn, Brant Dickson, Cliff Jensen, Johnny Rapid, Blaze, Leo Forte, Rafael Alencar, Brad Foxx, Marco Sessions, Isacc Jones, Harley Everett, Jack King, Johnny Rapid, Sebastian Young, Johnny Rapid, Colby Jansen, Charlie Harding, Jimmy Johnson, Johnny Rapid, Liam Magnuson, AJ Monroe, Bryce Star, Christian Wilde, Mitch Vaughn, Jack King, Jimmy Johnson, Johnny Rapid , Cliff Jensen, James Ryder</t>
+    <t>Jack King, Johnny Rapid, Sebastian Young, Brant Dickson, Cliff Jensen, Braden Charron, Logan Vaughn, Johnny Rapid, Colby Jansen, Charlie Harding, Jimmy Johnson, Jack King, Jimmy Johnson, Johnny Rapid , Cliff Jensen, James Ryder, AJ Monroe, Bryce Star, Christian Wilde, Mitch Vaughn, Johnny Rapid, Liam Magnuson, Johnny Rapid, Blaze, Leo Forte, Rafael Alencar, Brad Foxx, Marco Sessions, Isacc Jones, Harley Everett</t>
   </si>
   <si>
     <t>Scene Only</t>
@@ -4677,7 +4677,7 @@
     <t>media_sourced_from</t>
   </si>
   <si>
-    <t>02/18/2016 14:57:17</t>
+    <t>02/18/2016 14:59:45</t>
   </si>
 </sst>
 </file>
